--- a/Erwerbstätige_Schweiz_1991-2020_Nationalität.xlsx
+++ b/Erwerbstätige_Schweiz_1991-2020_Nationalität.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabie\Universität St.Gallen\Software-Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53464097-3BE4-4E0D-B11C-37AB52E25974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9693E410-02C7-48E4-9DA5-FE58CA0CDF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0\ \ "/>
-    <numFmt numFmtId="166" formatCode="#\ ###\ ##0__;\-#\ ###\ ##0__;0__;@__\ "/>
+    <numFmt numFmtId="164" formatCode="0\ \ "/>
+    <numFmt numFmtId="165" formatCode="#\ ###\ ##0__;\-#\ ###\ ##0__;0__;@__\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -259,8 +259,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -278,10 +278,10 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151A977D-E5B9-4EB9-8F9F-C15608CB0528}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -672,13 +672,16 @@
         <v>2001</v>
       </c>
       <c r="B2" s="12">
-        <v>4088.6935737682315</v>
+        <f>4088.69357376823*1000</f>
+        <v>4088693.5737682302</v>
       </c>
       <c r="C2" s="13">
-        <v>3080.8198826766115</v>
+        <f>3080.81988267661*1000</f>
+        <v>3080819.8826766103</v>
       </c>
       <c r="D2" s="13">
-        <v>1007.87369109162</v>
+        <f>1007.87369109162*1000</f>
+        <v>1007873.69109162</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="13" t="s">
@@ -689,32 +692,41 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="13">
-        <v>600.83786982312154</v>
+        <f>600.837869823122*1000</f>
+        <v>600837.86982312205</v>
       </c>
       <c r="J2" s="13">
-        <v>189.91045680638422</v>
+        <f>189.910456806384*1000</f>
+        <v>189910.456806384</v>
       </c>
       <c r="K2" s="13">
-        <v>25.654953096351733</v>
+        <f>25.6549530963517*1000</f>
+        <v>25654.953096351699</v>
       </c>
       <c r="L2" s="13">
-        <v>153.90797500000002</v>
+        <f>153.907975*1000</f>
+        <v>153907.97500000001</v>
       </c>
       <c r="M2" s="13">
-        <v>21.948561365762394</v>
+        <f>21.9485613657624*1000</f>
+        <v>21948.561365762402</v>
       </c>
       <c r="N2" s="13">
-        <v>15.613875</v>
+        <f>15.613875*1000</f>
+        <v>15613.875</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="13">
-        <v>2293.2164607835211</v>
+        <f>2293.21646078352*1000</f>
+        <v>2293216.4607835198</v>
       </c>
       <c r="Q2" s="13">
-        <v>1669.4113350279358</v>
+        <f>1669.41133502794*1000</f>
+        <v>1669411.3350279399</v>
       </c>
       <c r="R2" s="13">
-        <v>623.80512575558544</v>
+        <f>623.805125755585*1000</f>
+        <v>623805.12575558503</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="13" t="s">
@@ -729,13 +741,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="12">
-        <v>4117.9089882341686</v>
+        <f>4117.90898823417*1000</f>
+        <v>4117908.9882341698</v>
       </c>
       <c r="C3" s="13">
-        <v>3103.6773148973125</v>
+        <f>3103.67731489731*1000</f>
+        <v>3103677.3148973105</v>
       </c>
       <c r="D3" s="13">
-        <v>1014.2316733368558</v>
+        <f>1014.23167333686*1000</f>
+        <v>1014231.67333686</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="13" t="s">
@@ -746,32 +761,41 @@
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="13">
-        <v>588.99308345306895</v>
+        <f>588.993083453069*1000</f>
+        <v>588993.08345306898</v>
       </c>
       <c r="J3" s="13">
-        <v>198.69570717798706</v>
+        <f>198.695707177987*1000</f>
+        <v>198695.707177987</v>
       </c>
       <c r="K3" s="13">
-        <v>20.446229759120676</v>
+        <f>20.4462297591207*1000</f>
+        <v>20446.229759120703</v>
       </c>
       <c r="L3" s="13">
-        <v>161.16489999999999</v>
+        <f>161.1649*1000</f>
+        <v>161164.9</v>
       </c>
       <c r="M3" s="13">
-        <v>31.179877946679142</v>
+        <f>31.1798779466791*1000</f>
+        <v>31179.877946679098</v>
       </c>
       <c r="N3" s="13">
-        <v>13.751875</v>
+        <f>13.751875*1000</f>
+        <v>13751.875</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="13">
-        <v>2290.1066867176046</v>
+        <f>2290.1066867176*1000</f>
+        <v>2290106.6867176001</v>
       </c>
       <c r="Q3" s="13">
-        <v>1670.2247883651423</v>
+        <f>1670.22478836514*1000</f>
+        <v>1670224.7883651401</v>
       </c>
       <c r="R3" s="13">
-        <v>619.88189835246226</v>
+        <f>619.881898352462*1000</f>
+        <v>619881.89835246198</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="13" t="s">
@@ -786,13 +810,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="12">
-        <v>4103.2174591301882</v>
+        <f>4103.21745913019*1000</f>
+        <v>4103217.4591301898</v>
       </c>
       <c r="C4" s="13">
-        <v>3093.1974369200907</v>
+        <f>3093.19743692009*1000</f>
+        <v>3093197.4369200896</v>
       </c>
       <c r="D4" s="13">
-        <v>1010.0200222100977</v>
+        <f>1010.0200222101*1000</f>
+        <v>1010020.0222101</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="13" t="s">
@@ -803,32 +830,40 @@
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="13">
-        <v>572.57368316491602</v>
+        <f>572.573683164916*1000</f>
+        <v>572573.683164916</v>
       </c>
       <c r="J4" s="13">
-        <v>202.14673873546178</v>
+        <f>202.146738735462*1000</f>
+        <v>202146.73873546202</v>
       </c>
       <c r="K4" s="13">
         <v>0.22003472637979421</v>
       </c>
       <c r="L4" s="13">
-        <v>166.66435000000001</v>
+        <f>166.66435*1000</f>
+        <v>166664.35</v>
       </c>
       <c r="M4" s="13">
-        <v>56.327215583340006</v>
+        <f>56.32721558334*1000</f>
+        <v>56327.215583339996</v>
       </c>
       <c r="N4" s="13">
-        <v>12.088000000000001</v>
+        <f>12.088*1000</f>
+        <v>12088</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="13">
-        <v>2276.2360072311603</v>
+        <f>2276.23600723116*1000</f>
+        <v>2276236.0072311601</v>
       </c>
       <c r="Q4" s="13">
-        <v>1657.6642029888794</v>
+        <f>1657.66420298888*1000</f>
+        <v>1657664.2029888802</v>
       </c>
       <c r="R4" s="13">
-        <v>618.5718042422809</v>
+        <f>618.571804242281*1000</f>
+        <v>618571.80424228101</v>
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="13" t="s">
@@ -843,13 +878,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="12">
-        <v>4114.5643529719291</v>
+        <f>4114.56435297193*1000</f>
+        <v>4114564.3529719301</v>
       </c>
       <c r="C5" s="13">
-        <v>3095.4939937319441</v>
+        <f>3095.49399373194*1000</f>
+        <v>3095493.9937319402</v>
       </c>
       <c r="D5" s="13">
-        <v>1019.0703592399848</v>
+        <f>1019.07035923998*1000</f>
+        <v>1019070.35923998</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="13" t="s">
@@ -860,32 +898,40 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="13">
-        <v>562.12042795111438</v>
+        <f>562.120427951114*1000</f>
+        <v>562120.42795111402</v>
       </c>
       <c r="J5" s="13">
-        <v>217.14097057419923</v>
+        <f>217.140970574199*1000</f>
+        <v>217140.97057419899</v>
       </c>
       <c r="K5" s="13">
         <v>0</v>
       </c>
       <c r="L5" s="13">
-        <v>172.59338750000001</v>
+        <f>172.5933875*1000</f>
+        <v>172593.38750000001</v>
       </c>
       <c r="M5" s="13">
-        <v>54.549270731986027</v>
+        <f>54.549270731986*1000</f>
+        <v>54549.270731985998</v>
       </c>
       <c r="N5" s="13">
-        <v>12.666302482685177</v>
+        <f>12.6663024826852*1000</f>
+        <v>12666.3024826852</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="13">
-        <v>2282.0595222909196</v>
+        <f>2282.05952229092*1000</f>
+        <v>2282059.5222909199</v>
       </c>
       <c r="Q5" s="13">
-        <v>1657.4399514112347</v>
+        <f>1657.43995141123*1000</f>
+        <v>1657439.95141123</v>
       </c>
       <c r="R5" s="13">
-        <v>624.61957087968506</v>
+        <f>624.619570879685*1000</f>
+        <v>624619.57087968511</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="13" t="s">
@@ -900,13 +946,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="12">
-        <v>4144.6636091727305</v>
+        <f>4144.66360917273*1000</f>
+        <v>4144663.6091727298</v>
       </c>
       <c r="C6" s="13">
-        <v>3108.1196055193286</v>
+        <f>3108.11960551933*1000</f>
+        <v>3108119.6055193301</v>
       </c>
       <c r="D6" s="13">
-        <v>1036.5440036534014</v>
+        <f>1036.5440036534*1000</f>
+        <v>1036544.0036534001</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13" t="s">
@@ -917,32 +966,40 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="13">
-        <v>556.36583510090236</v>
+        <f>556.365835100902*1000</f>
+        <v>556365.83510090201</v>
       </c>
       <c r="J6" s="13">
-        <v>231.55513023273559</v>
+        <f>231.555130232736*1000</f>
+        <v>231555.130232736</v>
       </c>
       <c r="K6" s="13">
         <v>0</v>
       </c>
       <c r="L6" s="13">
-        <v>175.89445000000001</v>
+        <f>175.89445*1000</f>
+        <v>175894.45</v>
       </c>
       <c r="M6" s="13">
-        <v>55.035205226839189</v>
+        <f>55.0352052268392*1000</f>
+        <v>55035.2052268392</v>
       </c>
       <c r="N6" s="13">
-        <v>17.693383092924375</v>
+        <f>17.6933830929244*1000</f>
+        <v>17693.3830929244</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="13">
-        <v>2294.1386583459989</v>
+        <f>2294.138658346*1000</f>
+        <v>2294138.6583459997</v>
       </c>
       <c r="Q6" s="13">
-        <v>1658.7805696074317</v>
+        <f>1658.78056960743*1000</f>
+        <v>1658780.5696074299</v>
       </c>
       <c r="R6" s="13">
-        <v>635.35808873856718</v>
+        <f>635.358088738567*1000</f>
+        <v>635358.08873856696</v>
       </c>
       <c r="S6" s="11"/>
       <c r="T6" s="13" t="s">
@@ -957,13 +1014,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="12">
-        <v>4234.9321061172695</v>
+        <f>4234.93210611727*1000</f>
+        <v>4234932.1061172709</v>
       </c>
       <c r="C7" s="13">
-        <v>3160.956712878994</v>
+        <f>3160.95671287899*1000</f>
+        <v>3160956.71287899</v>
       </c>
       <c r="D7" s="13">
-        <v>1073.9753932382757</v>
+        <f>1073.97539323828*1000</f>
+        <v>1073975.39323828</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="13" t="s">
@@ -974,32 +1034,40 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="13">
-        <v>554.41703356624782</v>
+        <f>554.417033566248*1000</f>
+        <v>554417.03356624802</v>
       </c>
       <c r="J7" s="13">
-        <v>253.28092572922708</v>
+        <f>253.280925729227*1000</f>
+        <v>253280.92572922699</v>
       </c>
       <c r="K7" s="13">
         <v>0</v>
       </c>
       <c r="L7" s="13">
-        <v>185.64612500000001</v>
+        <f>185.646125*1000</f>
+        <v>185646.125</v>
       </c>
       <c r="M7" s="13">
-        <v>62.223389721692335</v>
+        <f>62.2233897216923*1000</f>
+        <v>62223.3897216923</v>
       </c>
       <c r="N7" s="13">
-        <v>18.407919221108386</v>
+        <f>18.4079192211084*1000</f>
+        <v>18407.919221108401</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="13">
-        <v>2343.6897240452226</v>
+        <f>2343.68972404522*1000</f>
+        <v>2343689.7240452198</v>
       </c>
       <c r="Q7" s="13">
-        <v>1684.3079964462427</v>
+        <f>1684.30799644624*1000</f>
+        <v>1684307.99644624</v>
       </c>
       <c r="R7" s="13">
-        <v>659.38172759897998</v>
+        <f>659.38172759898*1000</f>
+        <v>659381.72759897995</v>
       </c>
       <c r="S7" s="11"/>
       <c r="T7" s="13" t="s">
@@ -1014,13 +1082,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="12">
-        <v>4344.2744162789022</v>
+        <f>4344.2744162789*1000</f>
+        <v>4344274.4162789006</v>
       </c>
       <c r="C8" s="13">
-        <v>3220.443148983466</v>
+        <f>3220.44314898347*1000</f>
+        <v>3220443.1489834702</v>
       </c>
       <c r="D8" s="13">
-        <v>1123.8312672954362</v>
+        <f>1123.83126729544*1000</f>
+        <v>1123831.26729544</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="13" t="s">
@@ -1031,32 +1102,40 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="13">
-        <v>566.35388366562563</v>
+        <f>566.353883665626*1000</f>
+        <v>566353.88366562594</v>
       </c>
       <c r="J8" s="13">
-        <v>270.20603100983521</v>
+        <f>270.206031009835*1000</f>
+        <v>270206.03100983496</v>
       </c>
       <c r="K8" s="13">
         <v>0</v>
       </c>
       <c r="L8" s="13">
-        <v>202.84683749999999</v>
+        <f>202.8468375*1000</f>
+        <v>202846.83749999999</v>
       </c>
       <c r="M8" s="13">
-        <v>64.88269921654549</v>
+        <f>64.8826992165455*1000</f>
+        <v>64882.699216545501</v>
       </c>
       <c r="N8" s="13">
-        <v>19.541815903429836</v>
+        <f>19.5418159034298*1000</f>
+        <v>19541.815903429801</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="13">
-        <v>2407.3363077532599</v>
+        <f>2407.33630775326*1000</f>
+        <v>2407336.3077532598</v>
       </c>
       <c r="Q8" s="13">
-        <v>1716.442226053942</v>
+        <f>1716.44222605394*1000</f>
+        <v>1716442.2260539399</v>
       </c>
       <c r="R8" s="13">
-        <v>690.89408169931789</v>
+        <f>690.894081699318*1000</f>
+        <v>690894.08169931802</v>
       </c>
       <c r="S8" s="11"/>
       <c r="T8" s="13" t="s">
@@ -1071,13 +1150,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="12">
-        <v>4448.2630219087687</v>
+        <f>4448.26302190877*1000</f>
+        <v>4448263.0219087694</v>
       </c>
       <c r="C9" s="13">
-        <v>3272.5919988532705</v>
+        <f>3272.59199885327*1000</f>
+        <v>3272591.99885327</v>
       </c>
       <c r="D9" s="13">
-        <v>1175.6710230554982</v>
+        <f>1175.6710230555*1000</f>
+        <v>1175671.0230554999</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="13" t="s">
@@ -1088,32 +1170,40 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <v>584.34734740075282</v>
+        <f>584.347347400753*1000</f>
+        <v>584347.34740075306</v>
       </c>
       <c r="J9" s="13">
-        <v>306.03493392207213</v>
+        <f>306.034933922072*1000</f>
+        <v>306034.933922072</v>
       </c>
       <c r="K9" s="13">
         <v>0</v>
       </c>
       <c r="L9" s="13">
-        <v>214.37656249999998</v>
+        <f>214.3765625*1000</f>
+        <v>214376.5625</v>
       </c>
       <c r="M9" s="13">
-        <v>49.737883711398638</v>
+        <f>49.7378837113986*1000</f>
+        <v>49737.883711398601</v>
       </c>
       <c r="N9" s="13">
-        <v>21.174295521274445</v>
+        <f>21.1742955212744*1000</f>
+        <v>21174.295521274398</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="13">
-        <v>2442.8546486303658</v>
+        <f>2442.85464863037*1000</f>
+        <v>2442854.6486303699</v>
       </c>
       <c r="Q9" s="13">
-        <v>1726.9215996820465</v>
+        <f>1726.92159968205*1000</f>
+        <v>1726921.5996820501</v>
       </c>
       <c r="R9" s="13">
-        <v>715.93304894831931</v>
+        <f>715.933048948319*1000</f>
+        <v>715933.04894831893</v>
       </c>
       <c r="S9" s="11"/>
       <c r="T9" s="13" t="s">
@@ -1128,13 +1218,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="12">
-        <v>4469.1149849350713</v>
+        <f>4469.11498493507*1000</f>
+        <v>4469114.9849350704</v>
       </c>
       <c r="C10" s="13">
-        <v>3265.2363382341755</v>
+        <f>3265.23633823418*1000</f>
+        <v>3265236.3382341801</v>
       </c>
       <c r="D10" s="13">
-        <v>1203.8786467008963</v>
+        <f>1203.8786467009*1000</f>
+        <v>1203878.6467009</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="13" t="s">
@@ -1145,32 +1238,40 @@
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="13">
-        <v>588.87219534162864</v>
+        <f>588.872195341629*1000</f>
+        <v>588872.19534162898</v>
       </c>
       <c r="J10" s="13">
-        <v>330.30511204228617</v>
+        <f>330.305112042286*1000</f>
+        <v>330305.11204228603</v>
       </c>
       <c r="K10" s="13">
         <v>0</v>
       </c>
       <c r="L10" s="13">
-        <v>219.55386250000001</v>
+        <f>219.5538625*1000</f>
+        <v>219553.86250000002</v>
       </c>
       <c r="M10" s="13">
-        <v>46.467443206251787</v>
+        <f>46.4674432062518*1000</f>
+        <v>46467.443206251803</v>
       </c>
       <c r="N10" s="13">
-        <v>18.680033610729801</v>
+        <f>18.6800336107298*1000</f>
+        <v>18680.033610729803</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="13">
-        <v>2441.5781594589503</v>
+        <f>2441.57815945895*1000</f>
+        <v>2441578.1594589497</v>
       </c>
       <c r="Q10" s="13">
-        <v>1710.4636813205593</v>
+        <f>1710.46368132056*1000</f>
+        <v>1710463.6813205599</v>
       </c>
       <c r="R10" s="13">
-        <v>731.11447813839084</v>
+        <f>731.114478138391*1000</f>
+        <v>731114.47813839093</v>
       </c>
       <c r="S10" s="11"/>
       <c r="T10" s="13" t="s">
@@ -1185,56 +1286,71 @@
         <v>2010</v>
       </c>
       <c r="B11" s="12">
-        <v>4481.7112809997016</v>
+        <f>4481.7112809997*1000</f>
+        <v>4481711.2809996996</v>
       </c>
       <c r="C11" s="13">
-        <v>3267.2459858333332</v>
+        <f>3267.24598583333*1000</f>
+        <v>3267245.9858333301</v>
       </c>
       <c r="D11" s="13">
-        <v>1214.4652951663675</v>
+        <f>1214.46529516637*1000</f>
+        <v>1214465.29516637</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="13">
-        <v>921.10220965830354</v>
+        <f>921.102209658304*1000</f>
+        <v>921102.209658304</v>
       </c>
       <c r="G11" s="13">
-        <v>293.36308550806416</v>
+        <f>293.363085508064*1000</f>
+        <v>293363.08550806402</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="13">
-        <v>589.1389999999999</v>
+        <f>589.139*1000</f>
+        <v>589139</v>
       </c>
       <c r="J11" s="13">
-        <v>331.09224999999998</v>
+        <f>331.09225*1000</f>
+        <v>331092.25</v>
       </c>
       <c r="K11" s="13">
         <v>0</v>
       </c>
       <c r="L11" s="13">
-        <v>231.34536250000002</v>
+        <f>231.3453625*1000</f>
+        <v>231345.36249999999</v>
       </c>
       <c r="M11" s="13">
-        <v>45.057434393996672</v>
+        <f>45.0574343939967*1000</f>
+        <v>45057.4343939967</v>
       </c>
       <c r="N11" s="13">
-        <v>17.831248272370932</v>
+        <f>17.8312482723709*1000</f>
+        <v>17831.2482723709</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="13">
-        <v>2468.1039577532865</v>
+        <f>2468.10395775329*1000</f>
+        <v>2468103.95775329</v>
       </c>
       <c r="Q11" s="13">
-        <v>1726.3890959733417</v>
+        <f>1726.38909597334*1000</f>
+        <v>1726389.0959733401</v>
       </c>
       <c r="R11" s="13">
-        <v>741.71486177994484</v>
+        <f>741.714861779945*1000</f>
+        <v>741714.86177994497</v>
       </c>
       <c r="S11" s="11"/>
       <c r="T11" s="13">
-        <v>570.87839589518626</v>
+        <f>570.878395895186*1000</f>
+        <v>570878.395895186</v>
       </c>
       <c r="U11" s="13">
-        <v>170.83646588475858</v>
+        <f>170.836465884759*1000</f>
+        <v>170836.465884759</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1242,56 +1358,71 @@
         <v>2011</v>
       </c>
       <c r="B12" s="12">
-        <v>4597.5811827164162</v>
+        <f>4597.58118271642*1000</f>
+        <v>4597581.1827164199</v>
       </c>
       <c r="C12" s="13">
-        <v>3308.1247108333332</v>
+        <f>3308.12471083333*1000</f>
+        <v>3308124.7108333302</v>
       </c>
       <c r="D12" s="13">
-        <v>1289.4564718830825</v>
+        <f>1289.45647188308*1000</f>
+        <v>1289456.47188308</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="13">
-        <v>986.23208486081808</v>
+        <f>986.232084860818*1000</f>
+        <v>986232.08486081799</v>
       </c>
       <c r="G12" s="13">
-        <v>303.2243870222643</v>
+        <f>303.224387022264*1000</f>
+        <v>303224.38702226401</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="13">
-        <v>601.61650000000009</v>
+        <f>601.6165*1000</f>
+        <v>601616.5</v>
       </c>
       <c r="J12" s="13">
-        <v>370.02300000000002</v>
+        <f>370.023*1000</f>
+        <v>370023</v>
       </c>
       <c r="K12" s="13">
         <v>0</v>
       </c>
       <c r="L12" s="13">
-        <v>247.89118750000003</v>
+        <f>247.8911875*1000</f>
+        <v>247891.1875</v>
       </c>
       <c r="M12" s="13">
-        <v>47.96416147067869</v>
+        <f>47.9641614706787*1000</f>
+        <v>47964.161470678693</v>
       </c>
       <c r="N12" s="13">
-        <v>21.961622912403655</v>
+        <f>21.9616229124037*1000</f>
+        <v>21961.622912403702</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="13">
-        <v>2531.5062563919646</v>
+        <f>2531.50625639196*1000</f>
+        <v>2531506.2563919602</v>
       </c>
       <c r="Q12" s="13">
-        <v>1746.1728625362496</v>
+        <f>1746.17286253625*1000</f>
+        <v>1746172.8625362499</v>
       </c>
       <c r="R12" s="13">
-        <v>785.3333938557148</v>
+        <f>785.333393855715*1000</f>
+        <v>785333.39385571505</v>
       </c>
       <c r="S12" s="11"/>
       <c r="T12" s="13">
-        <v>609.20374436532757</v>
+        <f>609.203744365328*1000</f>
+        <v>609203.74436532799</v>
       </c>
       <c r="U12" s="13">
-        <v>176.12964949038732</v>
+        <f>176.129649490387*1000</f>
+        <v>176129.649490387</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1299,56 +1430,71 @@
         <v>2012</v>
       </c>
       <c r="B13" s="12">
-        <v>4679.4670233281286</v>
+        <f>4679.46702332813*1000</f>
+        <v>4679467.0233281301</v>
       </c>
       <c r="C13" s="13">
-        <v>3329.3643083333332</v>
+        <f>3329.36430833333*1000</f>
+        <v>3329364.3083333299</v>
       </c>
       <c r="D13" s="13">
-        <v>1350.1027149947954</v>
+        <f>1350.1027149948*1000</f>
+        <v>1350102.7149948</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="13">
-        <v>1043.2894807419111</v>
+        <f>1043.28948074191*1000</f>
+        <v>1043289.4807419099</v>
       </c>
       <c r="G13" s="13">
-        <v>306.81323425288406</v>
+        <f>306.813234252884*1000</f>
+        <v>306813.23425288399</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="13">
-        <v>621.19275000000005</v>
+        <f>621.19275*1000</f>
+        <v>621192.75</v>
       </c>
       <c r="J13" s="13">
-        <v>389.46224999999998</v>
+        <f>389.46225*1000</f>
+        <v>389462.25</v>
       </c>
       <c r="K13" s="13">
         <v>0</v>
       </c>
       <c r="L13" s="13">
-        <v>266.0811625</v>
+        <f>266.0811625*1000</f>
+        <v>266081.16249999998</v>
       </c>
       <c r="M13" s="13">
-        <v>48.249672634077108</v>
+        <f>48.2496726340771*1000</f>
+        <v>48249.672634077098</v>
       </c>
       <c r="N13" s="13">
-        <v>25.116879860718146</v>
+        <f>25.1168798607181*1000</f>
+        <v>25116.879860718102</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="13">
-        <v>2569.7665834600207</v>
+        <f>2569.76658346002*1000</f>
+        <v>2569766.5834600199</v>
       </c>
       <c r="Q13" s="13">
-        <v>1755.17566972246</v>
+        <f>1755.17566972246*1000</f>
+        <v>1755175.66972246</v>
       </c>
       <c r="R13" s="13">
-        <v>814.59091373756087</v>
+        <f>814.590913737561*1000</f>
+        <v>814590.91373756097</v>
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="13">
-        <v>639.81402274365587</v>
+        <f>639.814022743656*1000</f>
+        <v>639814.02274365595</v>
       </c>
       <c r="U13" s="13">
-        <v>174.776890993905</v>
+        <f>174.776890993905*1000</f>
+        <v>174776.89099390499</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1356,56 +1502,71 @@
         <v>2013</v>
       </c>
       <c r="B14" s="12">
-        <v>4736.0498069874093</v>
+        <f>4736.04980698741*1000</f>
+        <v>4736049.8069874104</v>
       </c>
       <c r="C14" s="13">
-        <v>3341.9100433333333</v>
+        <f>3341.91004333333*1000</f>
+        <v>3341910.0433333302</v>
       </c>
       <c r="D14" s="13">
-        <v>1394.1397636540762</v>
+        <f>1394.13976365408*1000</f>
+        <v>1394139.76365408</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="13">
-        <v>1087.6531998235537</v>
+        <f>1087.65319982355*1000</f>
+        <v>1087653.1998235499</v>
       </c>
       <c r="G14" s="13">
-        <v>306.48656383052236</v>
+        <f>306.486563830522*1000</f>
+        <v>306486.56383052201</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="13">
-        <v>657.16675000000009</v>
+        <f>657.16675*1000</f>
+        <v>657166.75</v>
       </c>
       <c r="J14" s="13">
-        <v>379.29075</v>
+        <f>379.29075*1000</f>
+        <v>379290.75</v>
       </c>
       <c r="K14" s="13">
         <v>0</v>
       </c>
       <c r="L14" s="13">
-        <v>278.74191249999996</v>
+        <f>278.7419125*1000</f>
+        <v>278741.91250000003</v>
       </c>
       <c r="M14" s="13">
-        <v>52.26675086539565</v>
+        <f>52.2667508653957*1000</f>
+        <v>52266.750865395697</v>
       </c>
       <c r="N14" s="13">
-        <v>26.673600288680333</v>
+        <f>26.6736002886803*1000</f>
+        <v>26673.6002886803</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="13">
-        <v>2593.320057007621</v>
+        <f>2593.32005700762*1000</f>
+        <v>2593320.0570076201</v>
       </c>
       <c r="Q14" s="13">
-        <v>1751.863232768633</v>
+        <f>1751.86323276863*1000</f>
+        <v>1751863.2327686301</v>
       </c>
       <c r="R14" s="13">
-        <v>841.45682423898825</v>
+        <f>841.456824238988*1000</f>
+        <v>841456.82423898799</v>
       </c>
       <c r="S14" s="11"/>
       <c r="T14" s="13">
-        <v>668.49856261259856</v>
+        <f>668.498562612599*1000</f>
+        <v>668498.56261259899</v>
       </c>
       <c r="U14" s="13">
-        <v>172.9582616263898</v>
+        <f>172.95826162639*1000</f>
+        <v>172958.26162638998</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1413,56 +1574,71 @@
         <v>2014</v>
       </c>
       <c r="B15" s="12">
-        <v>4825.2498842221212</v>
+        <f>4825.24988422212*1000</f>
+        <v>4825249.88422212</v>
       </c>
       <c r="C15" s="13">
-        <v>3373.2604208333332</v>
+        <f>3373.26042083333*1000</f>
+        <v>3373260.4208333301</v>
       </c>
       <c r="D15" s="13">
-        <v>1451.9894633887877</v>
+        <f>1451.98946338879*1000</f>
+        <v>1451989.4633887899</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="13">
-        <v>1139.5479340571342</v>
+        <f>1139.54793405713*1000</f>
+        <v>1139547.93405713</v>
       </c>
       <c r="G15" s="13">
-        <v>312.4415293316535</v>
+        <f>312.441529331653*1000</f>
+        <v>312441.52933165297</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="13">
-        <v>683.75324999999998</v>
+        <f>683.75325*1000</f>
+        <v>683753.25</v>
       </c>
       <c r="J15" s="13">
-        <v>397.80425000000002</v>
+        <f>397.80425*1000</f>
+        <v>397804.25</v>
       </c>
       <c r="K15" s="13">
         <v>0</v>
       </c>
       <c r="L15" s="13">
-        <v>291.06998750000002</v>
+        <f>291.0699875*1000</f>
+        <v>291069.98750000005</v>
       </c>
       <c r="M15" s="13">
-        <v>52.46491269628568</v>
+        <f>52.4649126962857*1000</f>
+        <v>52464.912696285704</v>
       </c>
       <c r="N15" s="13">
-        <v>26.897063192502017</v>
+        <f>26.897063192502*1000</f>
+        <v>26897.063192501999</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="13">
-        <v>2631.5466134255112</v>
+        <f>2631.54661342551*1000</f>
+        <v>2631546.61342551</v>
       </c>
       <c r="Q15" s="13">
-        <v>1755.0349447719339</v>
+        <f>1755.03494477193*1000</f>
+        <v>1755034.9447719299</v>
       </c>
       <c r="R15" s="13">
-        <v>876.51166865357732</v>
+        <f>876.511668653577*1000</f>
+        <v>876511.66865357698</v>
       </c>
       <c r="S15" s="11"/>
       <c r="T15" s="13">
-        <v>697.5003995819701</v>
+        <f>697.50039958197*1000</f>
+        <v>697500.39958196995</v>
       </c>
       <c r="U15" s="13">
-        <v>179.01126907160727</v>
+        <f>179.011269071607*1000</f>
+        <v>179011.26907160698</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1470,56 +1646,71 @@
         <v>2015</v>
       </c>
       <c r="B16" s="12">
-        <v>4899.1548135165867</v>
+        <f>4899.15481351659*1000</f>
+        <v>4899154.8135165907</v>
       </c>
       <c r="C16" s="13">
-        <v>3404.3589300000003</v>
+        <f>3404.35893*1000</f>
+        <v>3404358.9299999997</v>
       </c>
       <c r="D16" s="13">
-        <v>1494.7958835165864</v>
+        <f>1494.79588351659*1000</f>
+        <v>1494795.8835165901</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="13">
-        <v>1175.1975672310627</v>
+        <f>1175.19756723106*1000</f>
+        <v>1175197.56723106</v>
       </c>
       <c r="G16" s="13">
-        <v>319.59831628552348</v>
+        <f>319.598316285523*1000</f>
+        <v>319598.316285523</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="13">
-        <v>699.31475</v>
+        <f>699.31475*1000</f>
+        <v>699314.75</v>
       </c>
       <c r="J16" s="13">
-        <v>419.90174999999999</v>
+        <f>419.90175*1000</f>
+        <v>419901.75</v>
       </c>
       <c r="K16" s="13">
         <v>0</v>
       </c>
       <c r="L16" s="13">
-        <v>300.4104375</v>
+        <f>300.4104375*1000</f>
+        <v>300410.4375</v>
       </c>
       <c r="M16" s="13">
-        <v>49.100795879582492</v>
+        <f>49.1007958795825*1000</f>
+        <v>49100.795879582496</v>
       </c>
       <c r="N16" s="13">
-        <v>26.068150137003862</v>
+        <f>26.0681501370039*1000</f>
+        <v>26068.1501370039</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="13">
-        <v>2666.4383678519021</v>
+        <f>2666.4383678519*1000</f>
+        <v>2666438.3678518999</v>
       </c>
       <c r="Q16" s="13">
-        <v>1767.6778683310183</v>
+        <f>1767.67786833102*1000</f>
+        <v>1767677.86833102</v>
       </c>
       <c r="R16" s="13">
-        <v>898.76049952088385</v>
+        <f>898.760499520884*1000</f>
+        <v>898760.49952088401</v>
       </c>
       <c r="S16" s="11"/>
       <c r="T16" s="13">
-        <v>716.0714345804472</v>
+        <f>716.071434580447*1000</f>
+        <v>716071.43458044692</v>
       </c>
       <c r="U16" s="13">
-        <v>182.68906494043665</v>
+        <f>182.689064940437*1000</f>
+        <v>182689.06494043701</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1527,56 +1718,71 @@
         <v>2016</v>
       </c>
       <c r="B17" s="12">
-        <v>4967.2681786888961</v>
+        <f>4967.2681786889*1000</f>
+        <v>4967268.1786888996</v>
       </c>
       <c r="C17" s="13">
-        <v>3441.6655333333333</v>
+        <f>3441.66553333333*1000</f>
+        <v>3441665.5333333299</v>
       </c>
       <c r="D17" s="13">
-        <v>1525.6026453555628</v>
+        <f>1525.60264535556*1000</f>
+        <v>1525602.6453555601</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="13">
-        <v>1197.7006877872559</v>
+        <f>1197.70068778726*1000</f>
+        <v>1197700.6877872599</v>
       </c>
       <c r="G17" s="13">
-        <v>327.90195756830707</v>
+        <f>327.901957568307*1000</f>
+        <v>327901.957568307</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="13">
-        <v>711.89449999999988</v>
+        <f>711.8945*1000</f>
+        <v>711894.5</v>
       </c>
       <c r="J17" s="13">
-        <v>432.00700000000001</v>
+        <f>432.007*1000</f>
+        <v>432007</v>
       </c>
       <c r="K17" s="13">
         <v>0</v>
       </c>
       <c r="L17" s="13">
-        <v>308.51876249999998</v>
+        <f>308.5187625*1000</f>
+        <v>308518.76249999995</v>
       </c>
       <c r="M17" s="13">
-        <v>46.430104913739129</v>
+        <f>46.4301049137391*1000</f>
+        <v>46430.104913739102</v>
       </c>
       <c r="N17" s="13">
-        <v>26.752277941823792</v>
+        <f>26.7522779418238*1000</f>
+        <v>26752.277941823799</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="13">
-        <v>2694.5598265514755</v>
+        <f>2694.55982655148*1000</f>
+        <v>2694559.8265514802</v>
       </c>
       <c r="Q17" s="13">
-        <v>1786.1633537419659</v>
+        <f>1786.16335374197*1000</f>
+        <v>1786163.3537419699</v>
       </c>
       <c r="R17" s="13">
-        <v>908.39647280950965</v>
+        <f>908.39647280951*1000</f>
+        <v>908396.47280950996</v>
       </c>
       <c r="S17" s="11"/>
       <c r="T17" s="13">
-        <v>723.48150532473801</v>
+        <f>723.481505324738*1000</f>
+        <v>723481.50532473798</v>
       </c>
       <c r="U17" s="13">
-        <v>184.91496748477164</v>
+        <f>184.914967484772*1000</f>
+        <v>184914.967484772</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -1584,56 +1790,71 @@
         <v>2017</v>
       </c>
       <c r="B18" s="12">
-        <v>5012.5500061877892</v>
+        <f>5012.55000618779*1000</f>
+        <v>5012550.0061877901</v>
       </c>
       <c r="C18" s="13">
-        <v>3453.7865483333335</v>
+        <f>3453.78654833333*1000</f>
+        <v>3453786.5483333301</v>
       </c>
       <c r="D18" s="13">
-        <v>1558.7634578544562</v>
+        <f>1558.76345785446*1000</f>
+        <v>1558763.45785446</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="13">
-        <v>1225.4432157625611</v>
+        <f>1225.44321576256*1000</f>
+        <v>1225443.21576256</v>
       </c>
       <c r="G18" s="13">
-        <v>333.32024209189478</v>
+        <f>333.320242091895*1000</f>
+        <v>333320.24209189502</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="13">
-        <v>727.04324999999994</v>
+        <f>727.04325*1000</f>
+        <v>727043.25</v>
       </c>
       <c r="J18" s="13">
-        <v>437.59474999999998</v>
+        <f>437.59475*1000</f>
+        <v>437594.75</v>
       </c>
       <c r="K18" s="13">
         <v>0</v>
       </c>
       <c r="L18" s="13">
-        <v>316.92486250000002</v>
+        <f>316.9248625*1000</f>
+        <v>316924.86250000005</v>
       </c>
       <c r="M18" s="13">
-        <v>46.958766284416996</v>
+        <f>46.958766284417*1000</f>
+        <v>46958.766284417004</v>
       </c>
       <c r="N18" s="13">
-        <v>30.241829070038964</v>
+        <f>30.241829070039*1000</f>
+        <v>30241.829070038999</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="13">
-        <v>2731.4007147810344</v>
+        <f>2731.40071478103*1000</f>
+        <v>2731400.7147810296</v>
       </c>
       <c r="Q18" s="13">
-        <v>1790.3667009680837</v>
+        <f>1790.36670096808*1000</f>
+        <v>1790366.70096808</v>
       </c>
       <c r="R18" s="13">
-        <v>941.03401381295112</v>
+        <f>941.034013812951*1000</f>
+        <v>941034.01381295105</v>
       </c>
       <c r="S18" s="11"/>
       <c r="T18" s="13">
-        <v>748.61893782763661</v>
+        <f>748.618937827637*1000</f>
+        <v>748618.93782763695</v>
       </c>
       <c r="U18" s="13">
-        <v>192.41507598531447</v>
+        <f>192.415075985314*1000</f>
+        <v>192415.075985314</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1641,56 +1862,71 @@
         <v>2018</v>
       </c>
       <c r="B19" s="12">
-        <v>5064.5479840404714</v>
+        <f>5064.54798404047*1000</f>
+        <v>5064547.9840404699</v>
       </c>
       <c r="C19" s="13">
-        <v>3469.8800483333334</v>
+        <f>3469.88004833333*1000</f>
+        <v>3469880.0483333296</v>
       </c>
       <c r="D19" s="13">
-        <v>1594.6679357071384</v>
+        <f>1594.66793570714*1000</f>
+        <v>1594667.93570714</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="13">
-        <v>1250.4756642143752</v>
+        <f>1250.47566421438*1000</f>
+        <v>1250475.6642143801</v>
       </c>
       <c r="G19" s="13">
-        <v>344.1922714927631</v>
+        <f>344.192271492763*1000</f>
+        <v>344192.27149276296</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="13">
-        <v>749.22074999999995</v>
+        <f>749.22075*1000</f>
+        <v>749220.75</v>
       </c>
       <c r="J19" s="13">
-        <v>440.63250000000005</v>
+        <f>440.6325*1000</f>
+        <v>440632.5</v>
       </c>
       <c r="K19" s="13">
         <v>0</v>
       </c>
       <c r="L19" s="13">
-        <v>323.91546249999999</v>
+        <f>323.9154625*1000</f>
+        <v>323915.46249999997</v>
       </c>
       <c r="M19" s="13">
-        <v>47.322902325185083</v>
+        <f>47.3229023251851*1000</f>
+        <v>47322.902325185096</v>
       </c>
       <c r="N19" s="13">
-        <v>33.576320881953244</v>
+        <f>33.5763208819532*1000</f>
+        <v>33576.320881953201</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="13">
-        <v>2757.2466560527696</v>
+        <f>2757.24665605277*1000</f>
+        <v>2757246.6560527701</v>
       </c>
       <c r="Q19" s="13">
-        <v>1801.0069509680836</v>
+        <f>1801.00695096808*1000</f>
+        <v>1801006.95096808</v>
       </c>
       <c r="R19" s="13">
-        <v>956.23970508468585</v>
+        <f>956.239705084686*1000</f>
+        <v>956239.70508468593</v>
       </c>
       <c r="S19" s="11"/>
       <c r="T19" s="13">
-        <v>758.46095499435705</v>
+        <f>758.460954994357*1000</f>
+        <v>758460.95499435707</v>
       </c>
       <c r="U19" s="13">
-        <v>197.77875009032886</v>
+        <f>197.778750090329*1000</f>
+        <v>197778.75009032901</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1698,56 +1934,71 @@
         <v>2019</v>
       </c>
       <c r="B20" s="12">
-        <v>5100.6401210128615</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3474.7427549999998</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1625.897366012862</v>
+        <f>5100.64012101286*1000</f>
+        <v>5100640.12101286</v>
+      </c>
+      <c r="C20" s="13">
+        <f>3474.742755*1000</f>
+        <v>3474742.7550000004</v>
+      </c>
+      <c r="D20" s="13">
+        <f>1625.89736601286*1000</f>
+        <v>1625897.3660128599</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="6">
-        <v>1274.813687338346</v>
-      </c>
-      <c r="G20" s="6">
-        <v>351.08367867451614</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="5">
-        <v>759.71424999999999</v>
-      </c>
-      <c r="J20" s="5">
-        <v>451.29725000000002</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="F20" s="13">
+        <f>1274.81368733835*1000</f>
+        <v>1274813.6873383501</v>
+      </c>
+      <c r="G20" s="13">
+        <f>351.083678674516*1000</f>
+        <v>351083.67867451604</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13">
+        <f>759.71425*1000</f>
+        <v>759714.25</v>
+      </c>
+      <c r="J20" s="13">
+        <f>451.29725*1000</f>
+        <v>451297.25</v>
+      </c>
+      <c r="K20" s="13">
         <v>0</v>
       </c>
-      <c r="L20" s="5">
-        <v>332.29311250000001</v>
-      </c>
-      <c r="M20" s="5">
-        <v>45.680359484521183</v>
-      </c>
-      <c r="N20" s="5">
-        <v>36.912394028340856</v>
+      <c r="L20" s="13">
+        <f>332.2931125*1000</f>
+        <v>332293.11249999999</v>
+      </c>
+      <c r="M20" s="13">
+        <f>45.6803594845212*1000</f>
+        <v>45680.359484521199</v>
+      </c>
+      <c r="N20" s="13">
+        <f>36.9123940283409*1000</f>
+        <v>36912.394028340896</v>
       </c>
       <c r="O20" s="14"/>
-      <c r="P20" s="5">
-        <v>2769.4929199929584</v>
+      <c r="P20" s="13">
+        <f>2769.49291999296*1000</f>
+        <v>2769492.9199929601</v>
       </c>
       <c r="Q20" s="5">
-        <v>1798.94748</v>
+        <f>1798.94748*1000</f>
+        <v>1798947.48</v>
       </c>
       <c r="R20" s="5">
-        <v>970.54543999295856</v>
+        <f>970.545439992959*1000</f>
+        <v>970545.43999295903</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="6">
-        <v>772.28996512602475</v>
+        <f>772.289965126025*1000</f>
+        <v>772289.96512602502</v>
       </c>
       <c r="U20" s="6">
-        <v>198.25547486693381</v>
+        <f>198.255474866934*1000</f>
+        <v>198255.474866934</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -1755,56 +2006,71 @@
         <v>2020</v>
       </c>
       <c r="B21" s="12">
-        <v>5077.1157827133784</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3439.7765049999998</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1637.3392777133786</v>
+        <f>5077.11578271338*1000</f>
+        <v>5077115.7827133806</v>
+      </c>
+      <c r="C21" s="13">
+        <f>3439.776505*1000</f>
+        <v>3439776.5049999999</v>
+      </c>
+      <c r="D21" s="13">
+        <f>1637.33927771338*1000</f>
+        <v>1637339.2777133801</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="6">
-        <v>1280.8088429469824</v>
-      </c>
-      <c r="G21" s="6">
-        <v>356.5304347663963</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="5">
-        <v>773.34949999999992</v>
-      </c>
-      <c r="J21" s="5">
-        <v>448.62850000000003</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="F21" s="13">
+        <f>1280.80884294698*1000</f>
+        <v>1280808.8429469799</v>
+      </c>
+      <c r="G21" s="13">
+        <f>356.530434766396*1000</f>
+        <v>356530.43476639601</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13">
+        <f>773.3495*1000</f>
+        <v>773349.5</v>
+      </c>
+      <c r="J21" s="13">
+        <f>448.6285*1000</f>
+        <v>448628.5</v>
+      </c>
+      <c r="K21" s="13">
         <v>0</v>
       </c>
-      <c r="L21" s="5">
-        <v>340.57752500000004</v>
-      </c>
-      <c r="M21" s="5">
-        <v>38.367388342761167</v>
-      </c>
-      <c r="N21" s="5">
-        <v>36.416364370617636</v>
+      <c r="L21" s="13">
+        <f>340.577525*1000</f>
+        <v>340577.52499999997</v>
+      </c>
+      <c r="M21" s="13">
+        <f>38.3673883427612*1000</f>
+        <v>38367.388342761202</v>
+      </c>
+      <c r="N21" s="13">
+        <f>36.4163643706176*1000</f>
+        <v>36416.364370617601</v>
       </c>
       <c r="O21" s="14"/>
-      <c r="P21" s="5">
-        <v>2758.9735927974421</v>
+      <c r="P21" s="13">
+        <f>2758.97359279744*1000</f>
+        <v>2758973.5927974395</v>
       </c>
       <c r="Q21" s="5">
-        <v>1780.9057299999999</v>
+        <f>1780.90573*1000</f>
+        <v>1780905.73</v>
       </c>
       <c r="R21" s="5">
-        <v>978.06786279744256</v>
+        <f>978.067862797443*1000</f>
+        <v>978067.86279744306</v>
       </c>
       <c r="S21" s="14"/>
       <c r="T21" s="6">
-        <v>775.53446253220113</v>
+        <f>775.534462532201*1000</f>
+        <v>775534.46253220097</v>
       </c>
       <c r="U21" s="6">
-        <v>202.53340026524143</v>
+        <f>202.533400265241*1000</f>
+        <v>202533.40026524101</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">

--- a/Erwerbstätige_Schweiz_1991-2020_Nationalität.xlsx
+++ b/Erwerbstätige_Schweiz_1991-2020_Nationalität.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabie\Universität St.Gallen\Software-Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9693E410-02C7-48E4-9DA5-FE58CA0CDF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94360BF-1782-4733-A62E-9B045BCD035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="22" r:id="rId1"/>
+    <sheet name="Tabelle3" sheetId="24" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="21">
   <si>
     <t>Erwerbstätige,Total</t>
   </si>
@@ -116,6 +117,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ausländer </t>
+  </si>
+  <si>
+    <t>EU/EFTA/UK 1</t>
+  </si>
+  <si>
+    <t>Grenzgänger/innen 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Übrige Ausländer/innen 3 </t>
   </si>
 </sst>
 </file>
@@ -247,7 +257,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -287,6 +297,7 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -595,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151A977D-E5B9-4EB9-8F9F-C15608CB0528}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2536,4 +2547,1981 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3C93B3-727C-4BAD-AEFB-4550E8CA4AA5}">
+  <dimension ref="A1:U55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="15">
+        <v>4088693.5737682302</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3080819.8826766103</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1007873.69109162</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15">
+        <v>600837.86982312205</v>
+      </c>
+      <c r="J2" s="15">
+        <v>189910.456806384</v>
+      </c>
+      <c r="K2" s="15">
+        <v>25654.953096351699</v>
+      </c>
+      <c r="L2" s="15">
+        <v>153907.97500000001</v>
+      </c>
+      <c r="M2" s="15">
+        <v>21948.561365762402</v>
+      </c>
+      <c r="N2" s="15">
+        <v>15613.875</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15">
+        <v>2293216.4607835198</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>1669411.3350279399</v>
+      </c>
+      <c r="R2" s="15">
+        <v>623805.12575558503</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="15">
+        <v>4117908.9882341698</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3103677.3148973105</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1014231.67333686</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15">
+        <v>588993.08345306898</v>
+      </c>
+      <c r="J3" s="15">
+        <v>198695.707177987</v>
+      </c>
+      <c r="K3" s="15">
+        <v>20446.229759120703</v>
+      </c>
+      <c r="L3" s="15">
+        <v>161164.9</v>
+      </c>
+      <c r="M3" s="15">
+        <v>31179.877946679098</v>
+      </c>
+      <c r="N3" s="15">
+        <v>13751.875</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15">
+        <v>2290106.6867176001</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1670224.7883651401</v>
+      </c>
+      <c r="R3" s="15">
+        <v>619881.89835246198</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="15">
+        <v>4103217.4591301898</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3093197.4369200896</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1010020.0222101</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15">
+        <v>572573.683164916</v>
+      </c>
+      <c r="J4" s="15">
+        <v>202146.73873546202</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0.22003472637979421</v>
+      </c>
+      <c r="L4" s="15">
+        <v>166664.35</v>
+      </c>
+      <c r="M4" s="15">
+        <v>56327.215583339996</v>
+      </c>
+      <c r="N4" s="15">
+        <v>12088</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15">
+        <v>2276236.0072311601</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>1657664.2029888802</v>
+      </c>
+      <c r="R4" s="15">
+        <v>618571.80424228101</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="15">
+        <v>4114564.3529719301</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3095493.9937319402</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1019070.35923998</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15">
+        <v>562120.42795111402</v>
+      </c>
+      <c r="J5" s="15">
+        <v>217140.97057419899</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>172593.38750000001</v>
+      </c>
+      <c r="M5" s="15">
+        <v>54549.270731985998</v>
+      </c>
+      <c r="N5" s="15">
+        <v>12666.3024826852</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
+        <v>2282059.5222909199</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>1657439.95141123</v>
+      </c>
+      <c r="R5" s="15">
+        <v>624619.57087968511</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="15">
+        <v>4144663.6091727298</v>
+      </c>
+      <c r="C6" s="15">
+        <v>3108119.6055193301</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1036544.0036534001</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15">
+        <v>556365.83510090201</v>
+      </c>
+      <c r="J6" s="15">
+        <v>231555.130232736</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>175894.45</v>
+      </c>
+      <c r="M6" s="15">
+        <v>55035.2052268392</v>
+      </c>
+      <c r="N6" s="15">
+        <v>17693.3830929244</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
+        <v>2294138.6583459997</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>1658780.5696074299</v>
+      </c>
+      <c r="R6" s="15">
+        <v>635358.08873856696</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="15">
+        <v>4234932.1061172709</v>
+      </c>
+      <c r="C7" s="15">
+        <v>3160956.71287899</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1073975.39323828</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15">
+        <v>554417.03356624802</v>
+      </c>
+      <c r="J7" s="15">
+        <v>253280.92572922699</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>185646.125</v>
+      </c>
+      <c r="M7" s="15">
+        <v>62223.3897216923</v>
+      </c>
+      <c r="N7" s="15">
+        <v>18407.919221108401</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15">
+        <v>2343689.7240452198</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>1684307.99644624</v>
+      </c>
+      <c r="R7" s="15">
+        <v>659381.72759897995</v>
+      </c>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4344274.4162789006</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3220443.1489834702</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1123831.26729544</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15">
+        <v>566353.88366562594</v>
+      </c>
+      <c r="J8" s="15">
+        <v>270206.03100983496</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>202846.83749999999</v>
+      </c>
+      <c r="M8" s="15">
+        <v>64882.699216545501</v>
+      </c>
+      <c r="N8" s="15">
+        <v>19541.815903429801</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15">
+        <v>2407336.3077532598</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>1716442.2260539399</v>
+      </c>
+      <c r="R8" s="15">
+        <v>690894.08169931802</v>
+      </c>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="15">
+        <v>4448263.0219087694</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3272591.99885327</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1175671.0230554999</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15">
+        <v>584347.34740075306</v>
+      </c>
+      <c r="J9" s="15">
+        <v>306034.933922072</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>214376.5625</v>
+      </c>
+      <c r="M9" s="15">
+        <v>49737.883711398601</v>
+      </c>
+      <c r="N9" s="15">
+        <v>21174.295521274398</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15">
+        <v>2442854.6486303699</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>1726921.5996820501</v>
+      </c>
+      <c r="R9" s="15">
+        <v>715933.04894831893</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="15">
+        <v>4469114.9849350704</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3265236.3382341801</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1203878.6467009</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
+        <v>588872.19534162898</v>
+      </c>
+      <c r="J10" s="15">
+        <v>330305.11204228603</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>219553.86250000002</v>
+      </c>
+      <c r="M10" s="15">
+        <v>46467.443206251803</v>
+      </c>
+      <c r="N10" s="15">
+        <v>18680.033610729803</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15">
+        <v>2441578.1594589497</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>1710463.6813205599</v>
+      </c>
+      <c r="R10" s="15">
+        <v>731114.47813839093</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="15">
+        <v>4481711.2809996996</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3267245.9858333301</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1214465.29516637</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15">
+        <v>921102.209658304</v>
+      </c>
+      <c r="G11" s="15">
+        <v>293363.08550806402</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15">
+        <v>589139</v>
+      </c>
+      <c r="J11" s="15">
+        <v>331092.25</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>231345.36249999999</v>
+      </c>
+      <c r="M11" s="15">
+        <v>45057.4343939967</v>
+      </c>
+      <c r="N11" s="15">
+        <v>17831.2482723709</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15">
+        <v>2468103.95775329</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>1726389.0959733401</v>
+      </c>
+      <c r="R11" s="15">
+        <v>741714.86177994497</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15">
+        <v>570878.395895186</v>
+      </c>
+      <c r="U11" s="15">
+        <v>170836.465884759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="15">
+        <v>4597581.1827164199</v>
+      </c>
+      <c r="C12" s="15">
+        <v>3308124.7108333302</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1289456.47188308</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15">
+        <v>986232.08486081799</v>
+      </c>
+      <c r="G12" s="15">
+        <v>303224.38702226401</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
+        <v>601616.5</v>
+      </c>
+      <c r="J12" s="15">
+        <v>370023</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>247891.1875</v>
+      </c>
+      <c r="M12" s="15">
+        <v>47964.161470678693</v>
+      </c>
+      <c r="N12" s="15">
+        <v>21961.622912403702</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15">
+        <v>2531506.2563919602</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>1746172.8625362499</v>
+      </c>
+      <c r="R12" s="15">
+        <v>785333.39385571505</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15">
+        <v>609203.74436532799</v>
+      </c>
+      <c r="U12" s="15">
+        <v>176129.649490387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="15">
+        <v>4679467.0233281301</v>
+      </c>
+      <c r="C13" s="15">
+        <v>3329364.3083333299</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1350102.7149948</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15">
+        <v>1043289.4807419099</v>
+      </c>
+      <c r="G13" s="15">
+        <v>306813.23425288399</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15">
+        <v>621192.75</v>
+      </c>
+      <c r="J13" s="15">
+        <v>389462.25</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>266081.16249999998</v>
+      </c>
+      <c r="M13" s="15">
+        <v>48249.672634077098</v>
+      </c>
+      <c r="N13" s="15">
+        <v>25116.879860718102</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15">
+        <v>2569766.5834600199</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>1755175.66972246</v>
+      </c>
+      <c r="R13" s="15">
+        <v>814590.91373756097</v>
+      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15">
+        <v>639814.02274365595</v>
+      </c>
+      <c r="U13" s="15">
+        <v>174776.89099390499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="15">
+        <v>4736049.8069874104</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3341910.0433333302</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1394139.76365408</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15">
+        <v>1087653.1998235499</v>
+      </c>
+      <c r="G14" s="15">
+        <v>306486.56383052201</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15">
+        <v>657166.75</v>
+      </c>
+      <c r="J14" s="15">
+        <v>379290.75</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>278741.91250000003</v>
+      </c>
+      <c r="M14" s="15">
+        <v>52266.750865395697</v>
+      </c>
+      <c r="N14" s="15">
+        <v>26673.6002886803</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15">
+        <v>2593320.0570076201</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>1751863.2327686301</v>
+      </c>
+      <c r="R14" s="15">
+        <v>841456.82423898799</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15">
+        <v>668498.56261259899</v>
+      </c>
+      <c r="U14" s="15">
+        <v>172958.26162638998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="15">
+        <v>4825249.88422212</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3373260.4208333301</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1451989.4633887899</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15">
+        <v>1139547.93405713</v>
+      </c>
+      <c r="G15" s="15">
+        <v>312441.52933165297</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
+        <v>683753.25</v>
+      </c>
+      <c r="J15" s="15">
+        <v>397804.25</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <v>291069.98750000005</v>
+      </c>
+      <c r="M15" s="15">
+        <v>52464.912696285704</v>
+      </c>
+      <c r="N15" s="15">
+        <v>26897.063192501999</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15">
+        <v>2631546.61342551</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>1755034.9447719299</v>
+      </c>
+      <c r="R15" s="15">
+        <v>876511.66865357698</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15">
+        <v>697500.39958196995</v>
+      </c>
+      <c r="U15" s="15">
+        <v>179011.26907160698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="15">
+        <v>4899154.8135165907</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3404358.9299999997</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1494795.8835165901</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15">
+        <v>1175197.56723106</v>
+      </c>
+      <c r="G16" s="15">
+        <v>319598.316285523</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15">
+        <v>699314.75</v>
+      </c>
+      <c r="J16" s="15">
+        <v>419901.75</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>300410.4375</v>
+      </c>
+      <c r="M16" s="15">
+        <v>49100.795879582496</v>
+      </c>
+      <c r="N16" s="15">
+        <v>26068.1501370039</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15">
+        <v>2666438.3678518999</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>1767677.86833102</v>
+      </c>
+      <c r="R16" s="15">
+        <v>898760.49952088401</v>
+      </c>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15">
+        <v>716071.43458044692</v>
+      </c>
+      <c r="U16" s="15">
+        <v>182689.06494043701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="15">
+        <v>4967268.1786888996</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3441665.5333333299</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1525602.6453555601</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15">
+        <v>1197700.6877872599</v>
+      </c>
+      <c r="G17" s="15">
+        <v>327901.957568307</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15">
+        <v>711894.5</v>
+      </c>
+      <c r="J17" s="15">
+        <v>432007</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>308518.76249999995</v>
+      </c>
+      <c r="M17" s="15">
+        <v>46430.104913739102</v>
+      </c>
+      <c r="N17" s="15">
+        <v>26752.277941823799</v>
+      </c>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15">
+        <v>2694559.8265514802</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>1786163.3537419699</v>
+      </c>
+      <c r="R17" s="15">
+        <v>908396.47280950996</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15">
+        <v>723481.50532473798</v>
+      </c>
+      <c r="U17" s="15">
+        <v>184914.967484772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="15">
+        <v>5012550.0061877901</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3453786.5483333301</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1558763.45785446</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15">
+        <v>1225443.21576256</v>
+      </c>
+      <c r="G18" s="15">
+        <v>333320.24209189502</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15">
+        <v>727043.25</v>
+      </c>
+      <c r="J18" s="15">
+        <v>437594.75</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>316924.86250000005</v>
+      </c>
+      <c r="M18" s="15">
+        <v>46958.766284417004</v>
+      </c>
+      <c r="N18" s="15">
+        <v>30241.829070038999</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15">
+        <v>2731400.7147810296</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>1790366.70096808</v>
+      </c>
+      <c r="R18" s="15">
+        <v>941034.01381295105</v>
+      </c>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15">
+        <v>748618.93782763695</v>
+      </c>
+      <c r="U18" s="15">
+        <v>192415.075985314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="15">
+        <v>5064547.9840404699</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3469880.0483333296</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1594667.93570714</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15">
+        <v>1250475.6642143801</v>
+      </c>
+      <c r="G19" s="15">
+        <v>344192.27149276296</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15">
+        <v>749220.75</v>
+      </c>
+      <c r="J19" s="15">
+        <v>440632.5</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>323915.46249999997</v>
+      </c>
+      <c r="M19" s="15">
+        <v>47322.902325185096</v>
+      </c>
+      <c r="N19" s="15">
+        <v>33576.320881953201</v>
+      </c>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15">
+        <v>2757246.6560527701</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>1801006.95096808</v>
+      </c>
+      <c r="R19" s="15">
+        <v>956239.70508468593</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15">
+        <v>758460.95499435707</v>
+      </c>
+      <c r="U19" s="15">
+        <v>197778.75009032901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="15">
+        <v>5100640.12101286</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3474742.7550000004</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1625897.3660128599</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15">
+        <v>1274813.6873383501</v>
+      </c>
+      <c r="G20" s="15">
+        <v>351083.67867451604</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
+        <v>759714.25</v>
+      </c>
+      <c r="J20" s="15">
+        <v>451297.25</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>332293.11249999999</v>
+      </c>
+      <c r="M20" s="15">
+        <v>45680.359484521199</v>
+      </c>
+      <c r="N20" s="15">
+        <v>36912.394028340896</v>
+      </c>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15">
+        <v>2769492.9199929601</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>1798947.48</v>
+      </c>
+      <c r="R20" s="15">
+        <v>970545.43999295903</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15">
+        <v>772289.96512602502</v>
+      </c>
+      <c r="U20" s="15">
+        <v>198255.474866934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="15">
+        <v>5077115.7827133806</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3439776.5049999999</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1637339.2777133801</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15">
+        <v>1280808.8429469799</v>
+      </c>
+      <c r="G21" s="15">
+        <v>356530.43476639601</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15">
+        <v>773349.5</v>
+      </c>
+      <c r="J21" s="15">
+        <v>448628.5</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>340577.52499999997</v>
+      </c>
+      <c r="M21" s="15">
+        <v>38367.388342761202</v>
+      </c>
+      <c r="N21" s="15">
+        <v>36416.364370617601</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15">
+        <v>2758973.5927974395</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>1780905.73</v>
+      </c>
+      <c r="R21" s="15">
+        <v>978067.86279744306</v>
+      </c>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15">
+        <v>775534.46253220097</v>
+      </c>
+      <c r="U21" s="15">
+        <v>202533.40026524101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>